--- a/Doc/Preference.xlsx
+++ b/Doc/Preference.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="22635" windowHeight="10215" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="22635" windowHeight="10215"/>
   </bookViews>
   <sheets>
     <sheet name="Global" sheetId="3" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="32">
   <si>
     <t>SinaWeibo_NickName</t>
   </si>
@@ -58,9 +58,6 @@
     <t>关注站点的名字</t>
   </si>
   <si>
-    <t>关注站点的地址</t>
-  </si>
-  <si>
     <t>密码</t>
   </si>
   <si>
@@ -101,6 +98,21 @@
   </si>
   <si>
     <t>Renren_FollowerAvatar</t>
+  </si>
+  <si>
+    <t>RSS_FollowerOrigin</t>
+  </si>
+  <si>
+    <t>关注站点的rss地址</t>
+  </si>
+  <si>
+    <t>关注站点的原始地址</t>
+  </si>
+  <si>
+    <t>SinaWeibo_Avatar</t>
+  </si>
+  <si>
+    <t>SinaWeibo_FollowerAvatar</t>
   </si>
 </sst>
 </file>
@@ -441,8 +453,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -454,21 +466,21 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" t="s">
         <v>16</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>17</v>
-      </c>
-      <c r="C2" t="s">
-        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -478,11 +490,9 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:B6"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -530,6 +540,22 @@
         <v>9</v>
       </c>
     </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>30</v>
+      </c>
+      <c r="B6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>31</v>
+      </c>
+      <c r="B7" t="s">
+        <v>25</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -539,8 +565,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -551,7 +577,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B1" t="s">
         <v>2</v>
@@ -559,7 +585,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B2" t="s">
         <v>3</v>
@@ -567,15 +593,15 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3" t="s">
         <v>24</v>
-      </c>
-      <c r="B3" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
         <v>4</v>
@@ -583,7 +609,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B5" t="s">
         <v>7</v>
@@ -591,15 +617,15 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B7" t="s">
         <v>9</v>
@@ -612,10 +638,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -637,7 +663,15 @@
         <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>13</v>
+        <v>28</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B3" t="s">
+        <v>29</v>
       </c>
     </row>
   </sheetData>

--- a/Doc/Preference.xlsx
+++ b/Doc/Preference.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="22635" windowHeight="10215"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="22635" windowHeight="10215" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Global" sheetId="3" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="47">
   <si>
     <t>SinaWeibo_NickName</t>
   </si>
@@ -113,6 +113,51 @@
   </si>
   <si>
     <t>SinaWeibo_FollowerAvatar</t>
+  </si>
+  <si>
+    <t>SinaWeibo_RecentCount</t>
+  </si>
+  <si>
+    <t>一次更新的状态条数</t>
+  </si>
+  <si>
+    <t>Renren_RecentCount</t>
+  </si>
+  <si>
+    <t>是否抓取转发的图片到图片墙</t>
+  </si>
+  <si>
+    <t>Global_NeedFetchImageInRetweet</t>
+  </si>
+  <si>
+    <t>默认</t>
+  </si>
+  <si>
+    <t>False</t>
+  </si>
+  <si>
+    <t>True</t>
+  </si>
+  <si>
+    <t>Global_TileMode</t>
+  </si>
+  <si>
+    <t>显示在桌面上的瓷贴样式</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>更清晰的关注用户头像</t>
+  </si>
+  <si>
+    <t>SinaWeibo_FollowerAvatar2</t>
+  </si>
+  <si>
+    <t>0：动态  1：屌丝</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0 1 </t>
   </si>
 </sst>
 </file>
@@ -148,8 +193,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -451,53 +498,222 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:E36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.7109375" customWidth="1"/>
-    <col min="2" max="2" width="22.28515625" customWidth="1"/>
+    <col min="1" max="1" width="37.7109375" customWidth="1"/>
+    <col min="2" max="2" width="34" customWidth="1"/>
     <col min="3" max="3" width="17.42578125" customWidth="1"/>
+    <col min="5" max="5" width="49.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>14</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B2" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>15</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B3" t="s">
         <v>16</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C3" s="1" t="s">
         <v>17</v>
       </c>
+      <c r="D3" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>40</v>
+      </c>
+      <c r="B5" t="s">
+        <v>41</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+    </row>
+    <row r="17" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+    </row>
+    <row r="18" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+    </row>
+    <row r="19" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+    </row>
+    <row r="20" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+    </row>
+    <row r="21" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+    </row>
+    <row r="22" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+    </row>
+    <row r="23" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C23" s="1"/>
+      <c r="D23" s="1"/>
+    </row>
+    <row r="24" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C24" s="1"/>
+      <c r="D24" s="1"/>
+    </row>
+    <row r="25" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C25" s="1"/>
+      <c r="D25" s="1"/>
+    </row>
+    <row r="26" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C26" s="1"/>
+      <c r="D26" s="1"/>
+    </row>
+    <row r="27" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C27" s="1"/>
+      <c r="D27" s="1"/>
+    </row>
+    <row r="28" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C28" s="1"/>
+      <c r="D28" s="1"/>
+    </row>
+    <row r="29" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C29" s="1"/>
+      <c r="D29" s="1"/>
+    </row>
+    <row r="30" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C30" s="1"/>
+      <c r="D30" s="1"/>
+    </row>
+    <row r="31" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C31" s="1"/>
+      <c r="D31" s="1"/>
+    </row>
+    <row r="32" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C32" s="1"/>
+      <c r="D32" s="1"/>
+    </row>
+    <row r="33" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C33" s="1"/>
+      <c r="D33" s="1"/>
+    </row>
+    <row r="34" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C34" s="1"/>
+      <c r="D34" s="1"/>
+    </row>
+    <row r="35" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C35" s="1"/>
+      <c r="D35" s="1"/>
+    </row>
+    <row r="36" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C36" s="1"/>
+      <c r="D36" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:B9"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="32.42578125" customWidth="1"/>
-    <col min="2" max="2" width="16.5703125" customWidth="1"/>
+    <col min="2" max="2" width="21.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -554,6 +770,22 @@
       </c>
       <c r="B7" t="s">
         <v>25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>44</v>
+      </c>
+      <c r="B8" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>32</v>
+      </c>
+      <c r="B9" t="s">
+        <v>33</v>
       </c>
     </row>
   </sheetData>
@@ -563,10 +795,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -629,6 +861,14 @@
       </c>
       <c r="B7" t="s">
         <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>34</v>
+      </c>
+      <c r="B8" t="s">
+        <v>33</v>
       </c>
     </row>
   </sheetData>

--- a/Doc/Preference.xlsx
+++ b/Doc/Preference.xlsx
@@ -501,7 +501,7 @@
   <dimension ref="A1:E36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="A33" sqref="A33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -707,7 +707,7 @@
   <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="D10" sqref="A10:D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -798,7 +798,7 @@
   <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="B8" sqref="A8:B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Doc/Preference.xlsx
+++ b/Doc/Preference.xlsx
@@ -707,7 +707,7 @@
   <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="A10:D10"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Doc/Preference.xlsx
+++ b/Doc/Preference.xlsx
@@ -11,13 +11,14 @@
     <sheet name="SinaWeibo" sheetId="1" r:id="rId2"/>
     <sheet name="Renren" sheetId="4" r:id="rId3"/>
     <sheet name="Rss" sheetId="2" r:id="rId4"/>
+    <sheet name="Douban" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="56">
   <si>
     <t>SinaWeibo_NickName</t>
   </si>
@@ -158,6 +159,33 @@
   </si>
   <si>
     <t xml:space="preserve">0 1 </t>
+  </si>
+  <si>
+    <t>Douban_NickName</t>
+  </si>
+  <si>
+    <t>Douban_ID</t>
+  </si>
+  <si>
+    <t>Douban_Avatar</t>
+  </si>
+  <si>
+    <t>Douban_FollowerID</t>
+  </si>
+  <si>
+    <t>Douban_FollowerNickName</t>
+  </si>
+  <si>
+    <t>Douban_FollowerAvatar</t>
+  </si>
+  <si>
+    <t>Douban_Token</t>
+  </si>
+  <si>
+    <t>Douban_RecentCount</t>
+  </si>
+  <si>
+    <t>Douban_FollowerAvatar2</t>
   </si>
 </sst>
 </file>
@@ -501,7 +529,7 @@
   <dimension ref="A1:E36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A33" sqref="A33"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -707,7 +735,7 @@
   <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -798,7 +826,7 @@
   <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="A8:B8"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -917,4 +945,95 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="31" customWidth="1"/>
+    <col min="2" max="2" width="26" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>49</v>
+      </c>
+      <c r="B3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>50</v>
+      </c>
+      <c r="B4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>51</v>
+      </c>
+      <c r="B5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>52</v>
+      </c>
+      <c r="B6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>55</v>
+      </c>
+      <c r="B7" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>53</v>
+      </c>
+      <c r="B8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>54</v>
+      </c>
+      <c r="B9" t="s">
+        <v>33</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Doc/Preference.xlsx
+++ b/Doc/Preference.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="22635" windowHeight="10215" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="13260" windowHeight="9735"/>
   </bookViews>
   <sheets>
     <sheet name="Global" sheetId="3" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="67">
   <si>
     <t>SinaWeibo_NickName</t>
   </si>
@@ -186,6 +186,39 @@
   </si>
   <si>
     <t>Douban_FollowerAvatar2</t>
+  </si>
+  <si>
+    <t>Global_UseBlessingPage</t>
+  </si>
+  <si>
+    <t>是否在启动时显示祝福页</t>
+  </si>
+  <si>
+    <t>Global_BlessItemPassed</t>
+  </si>
+  <si>
+    <t>已经通过了的bless项</t>
+  </si>
+  <si>
+    <t>直接存pref里了，偷个懒不写文件了</t>
+  </si>
+  <si>
+    <t>Global_FirstLoadBlessList</t>
+  </si>
+  <si>
+    <t>是否是第一次加载blesslit</t>
+  </si>
+  <si>
+    <t>String</t>
+  </si>
+  <si>
+    <t>nil</t>
+  </si>
+  <si>
+    <t>设为随便</t>
+  </si>
+  <si>
+    <t>检测要不要发一个dialog来提示用户在祝福墙里的内容可以显示在启动画面上</t>
   </si>
 </sst>
 </file>
@@ -526,10 +559,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E36"/>
+  <dimension ref="A1:F36"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -537,15 +570,16 @@
     <col min="1" max="1" width="37.7109375" customWidth="1"/>
     <col min="2" max="2" width="34" customWidth="1"/>
     <col min="3" max="3" width="17.42578125" customWidth="1"/>
-    <col min="5" max="5" width="49.140625" customWidth="1"/>
+    <col min="5" max="5" width="37.28515625" customWidth="1"/>
+    <col min="6" max="6" width="77.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D1" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>14</v>
       </c>
@@ -555,7 +589,7 @@
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>15</v>
       </c>
@@ -569,7 +603,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>36</v>
       </c>
@@ -583,7 +617,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>40</v>
       </c>
@@ -600,47 +634,82 @@
         <v>45</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>56</v>
+      </c>
+      <c r="B6" t="s">
+        <v>57</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>58</v>
+      </c>
+      <c r="B7" t="s">
+        <v>59</v>
+      </c>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E7" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>61</v>
+      </c>
+      <c r="B8" t="s">
+        <v>62</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="E8" t="s">
+        <v>65</v>
+      </c>
+      <c r="F8" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
     </row>
@@ -734,8 +803,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
